--- a/public/idac_template_sample.xlsx
+++ b/public/idac_template_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prath\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prath\Desktop\qlink\dp_jewellers\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D3B7E2-E1D2-4A8D-A47B-8E32981D05B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A4538-A3DD-4015-8B78-30437E13FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B4F25232-6B3B-4004-A344-070DD5133703}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{B4F25232-6B3B-4004-A344-070DD5133703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>code</t>
+    <t>phone_number</t>
   </si>
   <si>
-    <t>number</t>
+    <t>phone_code</t>
   </si>
 </sst>
 </file>
@@ -385,23 +385,23 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91</v>
       </c>
